--- a/biology/Zoologie/Drassodes/Drassodes.xlsx
+++ b/biology/Zoologie/Drassodes/Drassodes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Drassodes est un genre d'araignées aranéomorphes de la famille des Gnaphosidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Drassodes est un genre d'araignées aranéomorphes de la famille des Gnaphosidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Afrique, en Asie, en Europe et en Amérique[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Afrique, en Asie, en Europe et en Amérique.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 25.0, 11/04/2024)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 25.0, 11/04/2024) :
 Drassodes affinis (Nicolet, 1849)
 Drassodes afghanus Roewer, 1961
 Drassodes albicans (Simon, 1878)
@@ -697,7 +713,7 @@
 Drassodes venustus (Nicolet, 1849)
 Drassodes villosus (Thorell, 1856)
 Drassodes viveki (Gajbe, 1992)
-Selon World Spider Catalog (version 23.5, 2023)[2] :
+Selon World Spider Catalog (version 23.5, 2023) :
 † Drassodes femurus Lin, Zhang &amp; Wang, 1989
 † Drassodes sextii Berland, 1939</t>
         </is>
@@ -727,12 +743,14 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre a été décrit par Westring en 1851.
-Geodrassus[3] a été placé en synonymie par Ubick et Roth en 1973[4].
-Mesklia[5] a été placé en synonymie par Chatzaki, Thaler et Mylonas en 2002[6].
-Kirmaka[7], Sillemia[8] et Siruasus[7] ont été placés en synonymie par Murphy en 2007[9].
+Geodrassus a été placé en synonymie par Ubick et Roth en 1973.
+Mesklia a été placé en synonymie par Chatzaki, Thaler et Mylonas en 2002.
+Kirmaka, Sillemia et Siruasus ont été placés en synonymie par Murphy en 2007.
 </t>
         </is>
       </c>
@@ -761,7 +779,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Westring, 1851 : « Förteckning öfver de till närvarande tid Kände, i Sverige förekommande Spindlarter, utgörande ett antal af 253, deraf 132 äro nya för svenska Faunan. » Göteborgs Kungliga Vetenskaps- och Vitterhets-samhälles Handlingar, vol. 2, p. 25-62 (texte intégral).</t>
         </is>
